--- a/public/equipements.xlsx
+++ b/public/equipements.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>IdEquipement</t>
   </si>
@@ -32,25 +32,10 @@
     <t>PrixAchat</t>
   </si>
   <si>
-    <t>ttttttttttttttt</t>
-  </si>
-  <si>
-    <t>2023-11-08</t>
-  </si>
-  <si>
-    <t>tapi roulante</t>
-  </si>
-  <si>
-    <t>2018-01-01</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>said</t>
-  </si>
-  <si>
-    <t>2023-11-30</t>
+    <t>hnfn</t>
+  </si>
+  <si>
+    <t>2023-12-15</t>
   </si>
 </sst>
 </file>
@@ -390,7 +375,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,70 +402,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>150.0</v>
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
